--- a/outputs-r202/g__UBA1067.xlsx
+++ b/outputs-r202/g__UBA1067.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -697,6 +702,11 @@
           <t>s__UBA1067 sp002315875</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>s__UBA1067 sp002315875(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -799,6 +809,11 @@
           <t>s__UBA1067 sp900320855</t>
         </is>
       </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>s__UBA1067 sp900320855</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -897,6 +912,11 @@
         <v>0.9967189682990677</v>
       </c>
       <c r="AF4" t="inlineStr">
+        <is>
+          <t>s__UBA1067 sp900321255</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>s__UBA1067 sp900321255</t>
         </is>

--- a/outputs-r202/g__UBA1067.xlsx
+++ b/outputs-r202/g__UBA1067.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,319 +604,212 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG508.fasta</t>
+          <t>RUG632.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1666666666665697</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>0.0007653605761217465</v>
       </c>
       <c r="F2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>4.825140162160965e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1666666666665697</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1666666666665697</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.727698592508857e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>0.9992346345580055</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1666666666665697</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1666666666665697</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.528841333867154e-14</v>
+        <v>2.220387580534718e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1666666666665697</v>
+        <v>3.747193659085839e-11</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1666666666665697</v>
+        <v>0.9992346345580055</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>s__UBA1067 sp002315875</t>
+          <t>s__UBA1067 sp900320855</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>s__UBA1067 sp002315875(reject)</t>
+          <t>s__UBA1067 sp900320855</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG632.fasta</t>
+          <t>RUG673.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007653605761217465</v>
+        <v>0.149500916959268</v>
       </c>
       <c r="F3" t="n">
-        <v>4.825140162160965e-09</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.727698592508857e-12</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9992346345580055</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>0.8504990827812094</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220387580534718e-14</v>
+        <v>2.220244807713978e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.747193659085839e-11</v>
+        <v>2.589454217636164e-10</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9992346345580055</v>
+        <v>0.8504990827812094</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>s__UBA1067 sp900320855</t>
+          <t>s__UBA1067 sp900321255</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
-        <is>
-          <t>s__UBA1067 sp900320855</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG673.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.149500916959268</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8504990827812094</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2.220244807713978e-14</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.589454217636164e-10</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.8504990827812094</v>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>s__UBA1067 sp900321255</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
         <is>
           <t>s__UBA1067 sp900321255</t>
         </is>
